--- a/docs/Registro de Participación con adjuntos_v3.xlsx
+++ b/docs/Registro de Participación con adjuntos_v3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2f7fe4d737f2b4a/CEPLAN/CeplanPythonCode/correos_automaticos/descargas/no_clasificados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2f7fe4d737f2b4a/CEPLAN/CeplanPythonCode/correos_automaticos/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{FFBEF568-0292-4899-B6EC-6FB142063352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B03FAD55-D2D0-46FA-9F85-C6AA166C80E9}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{FFBEF568-0292-4899-B6EC-6FB142063352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA793FCF-1427-4501-A476-B2F79876AD70}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4230" uniqueCount="1176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4230" uniqueCount="1177">
   <si>
     <t>Id</t>
   </si>
@@ -3563,6 +3563,9 @@
   </si>
   <si>
     <t>Talleres</t>
+  </si>
+  <si>
+    <t>Talleres de capacitación</t>
   </si>
 </sst>
 </file>
@@ -3935,7 +3938,7 @@
   <dimension ref="A1:AT214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4864,7 +4867,7 @@
         <v>100</v>
       </c>
       <c r="M11" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N11" t="s">
         <v>111</v>
@@ -4941,7 +4944,7 @@
         <v>100</v>
       </c>
       <c r="M12" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N12" t="s">
         <v>111</v>
@@ -5018,7 +5021,7 @@
         <v>100</v>
       </c>
       <c r="M13" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N13" t="s">
         <v>111</v>
@@ -5415,7 +5418,7 @@
         <v>146</v>
       </c>
       <c r="M18" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N18" t="s">
         <v>147</v>
@@ -5489,7 +5492,7 @@
         <v>146</v>
       </c>
       <c r="M19" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N19" t="s">
         <v>147</v>
@@ -5563,7 +5566,7 @@
         <v>146</v>
       </c>
       <c r="M20" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N20" t="s">
         <v>147</v>
@@ -6525,7 +6528,7 @@
         <v>215</v>
       </c>
       <c r="M33" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N33" t="s">
         <v>216</v>
@@ -6741,7 +6744,7 @@
         <v>240</v>
       </c>
       <c r="M36" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N36" t="s">
         <v>241</v>
@@ -6818,7 +6821,7 @@
         <v>240</v>
       </c>
       <c r="M37" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N37" t="s">
         <v>241</v>
@@ -6895,7 +6898,7 @@
         <v>251</v>
       </c>
       <c r="M38" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N38" t="s">
         <v>252</v>
@@ -6975,7 +6978,7 @@
         <v>251</v>
       </c>
       <c r="M39" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N39" t="s">
         <v>252</v>
@@ -7055,7 +7058,7 @@
         <v>251</v>
       </c>
       <c r="M40" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N40" t="s">
         <v>252</v>
@@ -7532,7 +7535,7 @@
         <v>304</v>
       </c>
       <c r="M46" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N46" t="s">
         <v>305</v>
@@ -7695,7 +7698,7 @@
         <v>68</v>
       </c>
       <c r="M48" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N48" t="s">
         <v>321</v>
@@ -8421,7 +8424,7 @@
         <v>370</v>
       </c>
       <c r="M57" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N57" t="s">
         <v>371</v>
@@ -8578,7 +8581,7 @@
         <v>385</v>
       </c>
       <c r="M59" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N59" t="s">
         <v>386</v>
@@ -8664,7 +8667,7 @@
         <v>385</v>
       </c>
       <c r="M60" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N60" t="s">
         <v>386</v>
@@ -8750,7 +8753,7 @@
         <v>385</v>
       </c>
       <c r="M61" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N61" t="s">
         <v>386</v>
@@ -9085,7 +9088,7 @@
         <v>419</v>
       </c>
       <c r="M65" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N65" t="s">
         <v>420</v>
@@ -9251,7 +9254,7 @@
         <v>435</v>
       </c>
       <c r="M67" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N67" t="s">
         <v>436</v>
@@ -9331,7 +9334,7 @@
         <v>68</v>
       </c>
       <c r="M68" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N68" t="s">
         <v>442</v>
@@ -9838,7 +9841,7 @@
         <v>240</v>
       </c>
       <c r="M74" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N74" t="s">
         <v>485</v>
@@ -10176,7 +10179,7 @@
         <v>510</v>
       </c>
       <c r="M78" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N78" t="s">
         <v>511</v>
@@ -10256,7 +10259,7 @@
         <v>516</v>
       </c>
       <c r="M79" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N79" t="s">
         <v>517</v>
@@ -10342,7 +10345,7 @@
         <v>524</v>
       </c>
       <c r="M80" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N80" t="s">
         <v>525</v>
@@ -10422,7 +10425,7 @@
         <v>524</v>
       </c>
       <c r="M81" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N81" t="s">
         <v>525</v>
@@ -10502,7 +10505,7 @@
         <v>524</v>
       </c>
       <c r="M82" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N82" t="s">
         <v>525</v>
@@ -10582,7 +10585,7 @@
         <v>537</v>
       </c>
       <c r="M83" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N83" t="s">
         <v>538</v>
@@ -10671,7 +10674,7 @@
         <v>537</v>
       </c>
       <c r="M84" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N84" t="s">
         <v>538</v>
@@ -10760,7 +10763,7 @@
         <v>537</v>
       </c>
       <c r="M85" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N85" t="s">
         <v>538</v>
@@ -10849,7 +10852,7 @@
         <v>537</v>
       </c>
       <c r="M86" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N86" t="s">
         <v>538</v>
@@ -10938,7 +10941,7 @@
         <v>537</v>
       </c>
       <c r="M87" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N87" t="s">
         <v>538</v>
@@ -11495,7 +11498,7 @@
         <v>50</v>
       </c>
       <c r="M94" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N94" t="s">
         <v>583</v>
@@ -11723,7 +11726,7 @@
         <v>273</v>
       </c>
       <c r="M97" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N97" t="s">
         <v>593</v>
@@ -11800,7 +11803,7 @@
         <v>273</v>
       </c>
       <c r="M98" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N98" t="s">
         <v>593</v>
@@ -11877,7 +11880,7 @@
         <v>68</v>
       </c>
       <c r="M99" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N99" t="s">
         <v>601</v>
@@ -11966,7 +11969,7 @@
         <v>607</v>
       </c>
       <c r="M100" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N100" t="s">
         <v>608</v>
@@ -12040,7 +12043,7 @@
         <v>612</v>
       </c>
       <c r="M101" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N101" t="s">
         <v>613</v>
@@ -12129,7 +12132,7 @@
         <v>68</v>
       </c>
       <c r="M102" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N102" t="s">
         <v>619</v>
@@ -12218,7 +12221,7 @@
         <v>625</v>
       </c>
       <c r="M103" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N103" t="s">
         <v>626</v>
@@ -12304,7 +12307,7 @@
         <v>625</v>
       </c>
       <c r="M104" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N104" t="s">
         <v>626</v>
@@ -12390,7 +12393,7 @@
         <v>625</v>
       </c>
       <c r="M105" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N105" t="s">
         <v>626</v>
@@ -12642,7 +12645,7 @@
         <v>649</v>
       </c>
       <c r="M108" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N108" t="s">
         <v>650</v>
@@ -12722,7 +12725,7 @@
         <v>649</v>
       </c>
       <c r="M109" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N109" t="s">
         <v>650</v>
@@ -13042,7 +13045,7 @@
         <v>672</v>
       </c>
       <c r="M113" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N113" t="s">
         <v>673</v>
@@ -13122,7 +13125,7 @@
         <v>678</v>
       </c>
       <c r="M114" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N114" t="s">
         <v>679</v>
@@ -13202,7 +13205,7 @@
         <v>678</v>
       </c>
       <c r="M115" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N115" t="s">
         <v>679</v>
@@ -13282,7 +13285,7 @@
         <v>687</v>
       </c>
       <c r="M116" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N116" t="s">
         <v>688</v>
@@ -13362,7 +13365,7 @@
         <v>687</v>
       </c>
       <c r="M117" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N117" t="s">
         <v>688</v>
@@ -14816,7 +14819,7 @@
         <v>763</v>
       </c>
       <c r="M136" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N136" t="s">
         <v>764</v>
@@ -16564,7 +16567,7 @@
         <v>68</v>
       </c>
       <c r="M158" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N158" t="s">
         <v>882</v>
@@ -18214,7 +18217,7 @@
         <v>997</v>
       </c>
       <c r="M179" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N179" t="s">
         <v>998</v>
@@ -18297,7 +18300,7 @@
         <v>1005</v>
       </c>
       <c r="M180" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N180" t="s">
         <v>1006</v>
@@ -18374,7 +18377,7 @@
         <v>1005</v>
       </c>
       <c r="M181" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N181" t="s">
         <v>1006</v>
@@ -19029,7 +19032,7 @@
         <v>639</v>
       </c>
       <c r="M189" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N189" t="s">
         <v>1052</v>
@@ -19112,7 +19115,7 @@
         <v>639</v>
       </c>
       <c r="M190" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N190" t="s">
         <v>1052</v>
@@ -19788,7 +19791,7 @@
         <v>639</v>
       </c>
       <c r="M198" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N198" t="s">
         <v>1086</v>
@@ -20108,7 +20111,7 @@
         <v>1109</v>
       </c>
       <c r="M202" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N202" t="s">
         <v>1110</v>
@@ -20191,7 +20194,7 @@
         <v>1109</v>
       </c>
       <c r="M203" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N203" t="s">
         <v>1110</v>
@@ -20659,7 +20662,7 @@
         <v>1146</v>
       </c>
       <c r="M209" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N209" t="s">
         <v>1147</v>
@@ -20810,7 +20813,7 @@
         <v>1156</v>
       </c>
       <c r="M211" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N211" t="s">
         <v>1157</v>
@@ -20890,7 +20893,7 @@
         <v>1156</v>
       </c>
       <c r="M212" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="N212" t="s">
         <v>1157</v>
